--- a/data/cellscompared.xlsx
+++ b/data/cellscompared.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="211" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="105" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>k</t>
   </si>
@@ -37,24 +37,21 @@
     <t>V_oc_lim(V)</t>
   </si>
   <si>
-    <t>J_sc_measured (mA/cm^ 2)</t>
-  </si>
-  <si>
     <t>J_sc(mA/cm^2)</t>
   </si>
   <si>
     <t>J_0_rad(mA/cm^2)</t>
   </si>
   <si>
+    <t>J0 nr uit J0rad</t>
+  </si>
+  <si>
     <t>ERE(%)</t>
   </si>
   <si>
     <t>J0</t>
   </si>
   <si>
-    <t>J0 nr uit J0rad</t>
-  </si>
-  <si>
     <t>w1642</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>w1703</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>1.51929e-18</t>
   </si>
   <si>
@@ -242,6 +236,90 @@
   </si>
   <si>
     <t>1.91601e-18</t>
+  </si>
+  <si>
+    <t>3nm resolutie</t>
+  </si>
+  <si>
+    <t>W1689</t>
+  </si>
+  <si>
+    <t>2.61746e-18</t>
+  </si>
+  <si>
+    <t>2.06287e-16</t>
+  </si>
+  <si>
+    <t>W1683</t>
+  </si>
+  <si>
+    <t>2.58283e-18</t>
+  </si>
+  <si>
+    <t>1.05421e-16</t>
+  </si>
+  <si>
+    <t>W1670</t>
+  </si>
+  <si>
+    <t>1.72342e-18</t>
+  </si>
+  <si>
+    <t>4.49478e-17</t>
+  </si>
+  <si>
+    <t>W1664</t>
+  </si>
+  <si>
+    <t>2.89745e-18</t>
+  </si>
+  <si>
+    <t>2.09404e-16</t>
+  </si>
+  <si>
+    <t>W1662</t>
+  </si>
+  <si>
+    <t>2.92539e-18</t>
+  </si>
+  <si>
+    <t>9.52313e-17</t>
+  </si>
+  <si>
+    <t>W1660</t>
+  </si>
+  <si>
+    <t>2.65231e-18</t>
+  </si>
+  <si>
+    <t>4.20995e-16</t>
+  </si>
+  <si>
+    <t>W1657</t>
+  </si>
+  <si>
+    <t>3.16026e-18</t>
+  </si>
+  <si>
+    <t>2.91887e-16</t>
+  </si>
+  <si>
+    <t>W1642</t>
+  </si>
+  <si>
+    <t>2.52384e-18</t>
+  </si>
+  <si>
+    <t>3.70748e-16</t>
+  </si>
+  <si>
+    <t>W1632</t>
+  </si>
+  <si>
+    <t>3.04844e-18</t>
+  </si>
+  <si>
+    <t>4.48519e-16</t>
   </si>
 </sst>
 </file>
@@ -255,6 +333,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -316,9 +395,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -336,21 +418,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="J1" activeCellId="0" pane="topLeft" sqref="J1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A50" activeCellId="0" pane="topLeft" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.956862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.2352941176471"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.521568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.243137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3098039215686"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -404,13 +486,10 @@
       <c r="I6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.996</v>
@@ -419,29 +498,26 @@
         <v>1.14923</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E7" s="0" t="n">
         <v>21.2163</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <f aca="false">I7-E7</f>
+        <v>3.867294848018E-016</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0.266554</v>
       </c>
       <c r="I7" s="0" t="n">
-        <f aca="false">E7/(EXP(B7*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D7/(EXP(B7*$B$2/($B$1*$B$3))-1)</f>
         <v>3.877775548018E-016</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <f aca="false">I7-F7</f>
-        <v>3.867294848018E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.99</v>
@@ -450,29 +526,26 @@
         <v>1.14567</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="E8" s="0" t="n">
         <v>19.4396</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>15</v>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <f aca="false">I8-E8</f>
+        <v>4.47056673607642E-016</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0.242615</v>
       </c>
       <c r="I8" s="0" t="n">
-        <f aca="false">E8/(EXP(B8*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D8/(EXP(B8*$B$2/($B$1*$B$3))-1)</f>
         <v>4.48159073607642E-016</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <f aca="false">I8-F8</f>
-        <v>4.47056673607642E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1.03</v>
@@ -481,29 +554,26 @@
         <v>1.14658</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" s="0" t="n">
         <v>21.1872</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>17</v>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <f aca="false">I9-E9</f>
+        <v>1.02738041488489E-016</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>1.1003</v>
       </c>
       <c r="I9" s="0" t="n">
-        <f aca="false">E9/(EXP(B9*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D9/(EXP(B9*$B$2/($B$1*$B$3))-1)</f>
         <v>1.03897741488489E-016</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <f aca="false">I9-F9</f>
-        <v>1.02738041488489E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1.01</v>
@@ -512,29 +582,26 @@
         <v>1.14609</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="E10" s="0" t="n">
         <v>21.5994</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
+      <c r="E10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <f aca="false">I10-E10</f>
+        <v>2.28452502800887E-016</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0.517311</v>
       </c>
       <c r="I10" s="0" t="n">
-        <f aca="false">E10/(EXP(B10*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D10/(EXP(B10*$B$2/($B$1*$B$3))-1)</f>
         <v>2.29657372800887E-016</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <f aca="false">I10-F10</f>
-        <v>2.28452502800887E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1.04</v>
@@ -543,29 +610,26 @@
         <v>1.16305</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E11" s="0" t="n">
         <v>14.7383</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>21</v>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">I11-E11</f>
+        <v>4.86559168741767E-017</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0.856659</v>
       </c>
       <c r="I11" s="0" t="n">
-        <f aca="false">E11/(EXP(B11*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D11/(EXP(B11*$B$2/($B$1*$B$3))-1)</f>
         <v>4.90825198741767E-017</v>
-      </c>
-      <c r="J11" s="0" t="n">
-        <f aca="false">I11-F11</f>
-        <v>4.86559168741767E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1.04</v>
@@ -574,29 +638,26 @@
         <v>1.16115</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E12" s="0" t="n">
         <v>14.6284</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>23</v>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <f aca="false">I12-E12</f>
+        <v>4.82607201897442E-017</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0.922171</v>
       </c>
       <c r="I12" s="0" t="n">
-        <f aca="false">E12/(EXP(B12*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D12/(EXP(B12*$B$2/($B$1*$B$3))-1)</f>
         <v>4.87165231897442E-017</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <f aca="false">I12-F12</f>
-        <v>4.82607201897442E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1.04</v>
@@ -605,29 +666,26 @@
         <v>1.16126</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E13" s="0" t="n">
         <v>14.3923</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>25</v>
+      <c r="E13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <f aca="false">I13-E13</f>
+        <v>4.74837664181835E-017</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.918128</v>
       </c>
       <c r="I13" s="0" t="n">
-        <f aca="false">E13/(EXP(B13*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D13/(EXP(B13*$B$2/($B$1*$B$3))-1)</f>
         <v>4.79302464181835E-017</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <f aca="false">I13-F13</f>
-        <v>4.74837664181835E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1.01</v>
@@ -636,29 +694,26 @@
         <v>1.1611</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E14" s="0" t="n">
         <v>14.5685</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>27</v>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <f aca="false">I14-E14</f>
+        <v>1.54445983152992E-016</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.289492</v>
       </c>
       <c r="I14" s="0" t="n">
-        <f aca="false">E14/(EXP(B14*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D14/(EXP(B14*$B$2/($B$1*$B$3))-1)</f>
         <v>1.54900758152991E-016</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <f aca="false">I14-F14</f>
-        <v>1.54445983152992E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1.02</v>
@@ -667,29 +722,26 @@
         <v>1.16232</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E15" s="0" t="n">
         <v>14.7345</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <f aca="false">I15-E15</f>
+        <v>1.0595627875853E-016</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.406493</v>
       </c>
       <c r="I15" s="0" t="n">
-        <f aca="false">E15/(EXP(B15*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D15/(EXP(B15*$B$2/($B$1*$B$3))-1)</f>
         <v>1.0639495275853E-016</v>
-      </c>
-      <c r="J15" s="0" t="n">
-        <f aca="false">I15-F15</f>
-        <v>1.0595627875853E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1.03</v>
@@ -698,29 +750,26 @@
         <v>1.16218</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E16" s="0" t="n">
         <v>14.129</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <f aca="false">I16-E16</f>
+        <v>6.88627429424401E-017</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.601842</v>
       </c>
       <c r="I16" s="0" t="n">
-        <f aca="false">E16/(EXP(B16*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D16/(EXP(B16*$B$2/($B$1*$B$3))-1)</f>
         <v>6.92857569424401E-017</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <f aca="false">I16-F16</f>
-        <v>6.88627429424401E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
       <c r="A17" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.99</v>
@@ -729,29 +778,26 @@
         <v>1.16043</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E17" s="0" t="n">
         <v>13.8406</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>33</v>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <f aca="false">I17-E17</f>
+        <v>3.1863680249762E-016</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.137043</v>
       </c>
       <c r="I17" s="0" t="n">
-        <f aca="false">E17/(EXP(B17*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D17/(EXP(B17*$B$2/($B$1*$B$3))-1)</f>
         <v>3.1908014949762E-016</v>
-      </c>
-      <c r="J17" s="0" t="n">
-        <f aca="false">I17-F17</f>
-        <v>3.1863680249762E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
       <c r="A18" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1.03</v>
@@ -760,29 +806,26 @@
         <v>1.16148</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="E18" s="0" t="n">
         <v>14.7114</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>35</v>
+      <c r="E18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <f aca="false">I18-E18</f>
+        <v>7.16891406915573E-017</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0.618426</v>
       </c>
       <c r="I18" s="0" t="n">
-        <f aca="false">E18/(EXP(B18*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D18/(EXP(B18*$B$2/($B$1*$B$3))-1)</f>
         <v>7.21417286915573E-017</v>
-      </c>
-      <c r="J18" s="0" t="n">
-        <f aca="false">I18-F18</f>
-        <v>7.16891406915573E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1.02</v>
@@ -791,29 +834,26 @@
         <v>1.15948</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E19" s="0" t="n">
         <v>13.7813</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>37</v>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <f aca="false">I19-E19</f>
+        <v>9.90539913363958E-017</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0.453845</v>
       </c>
       <c r="I19" s="0" t="n">
-        <f aca="false">E19/(EXP(B19*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D19/(EXP(B19*$B$2/($B$1*$B$3))-1)</f>
         <v>9.95120813363958E-017</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <f aca="false">I19-F19</f>
-        <v>9.90539913363958E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
       <c r="A20" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1.03</v>
@@ -822,29 +862,26 @@
         <v>1.14917</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="E20" s="0" t="n">
         <v>18.3029</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>39</v>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <f aca="false">I20-E20</f>
+        <v>8.88472019377017E-017</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0.995622</v>
       </c>
       <c r="I20" s="0" t="n">
-        <f aca="false">E20/(EXP(B20*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D20/(EXP(B20*$B$2/($B$1*$B$3))-1)</f>
         <v>8.97537179377017E-017</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <f aca="false">I20-F20</f>
-        <v>8.88472019377017E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
       <c r="A21" s="0" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1.01</v>
@@ -853,29 +890,26 @@
         <v>1.14101</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E21" s="0" t="n">
         <v>21.7549</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>41</v>
+      <c r="E21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <f aca="false">I21-E21</f>
+        <v>2.29833779166182E-016</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0.629601</v>
       </c>
       <c r="I21" s="0" t="n">
-        <f aca="false">E21/(EXP(B21*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D21/(EXP(B21*$B$2/($B$1*$B$3))-1)</f>
         <v>2.31310739166181E-016</v>
-      </c>
-      <c r="J21" s="0" t="n">
-        <f aca="false">I21-F21</f>
-        <v>2.29833779166182E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
       <c r="A22" s="0" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>0.954</v>
@@ -884,29 +918,26 @@
         <v>1.14396</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E22" s="0" t="n">
         <v>22.0558</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>43</v>
+      <c r="E22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <f aca="false">I22-E22</f>
+        <v>2.04632815059097E-015</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0.0643961</v>
       </c>
       <c r="I22" s="0" t="n">
-        <f aca="false">E22/(EXP(B22*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D22/(EXP(B22*$B$2/($B$1*$B$3))-1)</f>
         <v>2.04766440059097E-015</v>
-      </c>
-      <c r="J22" s="0" t="n">
-        <f aca="false">I22-F22</f>
-        <v>2.04632815059097E-015</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
       <c r="A23" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1.035</v>
@@ -914,30 +945,27 @@
       <c r="C23" s="0" t="n">
         <v>1.14751</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>28.7691</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>46</v>
+      <c r="E23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <f aca="false">I23-E23</f>
+        <v>1.14741233881266E-016</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>1.2881</v>
       </c>
       <c r="I23" s="0" t="n">
-        <f aca="false">E23/(EXP(B23*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D23/(EXP(B23*$B$2/($B$1*$B$3))-1)</f>
         <v>1.16260523881266E-016</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <f aca="false">I23-F23</f>
-        <v>1.14741233881266E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
       <c r="A24" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1.041</v>
@@ -946,29 +974,26 @@
         <v>1.14545</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="E24" s="0" t="n">
         <v>21.9846</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>48</v>
+      <c r="E24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <f aca="false">I24-E24</f>
+        <v>6.91784011365793E-017</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1.75932</v>
       </c>
       <c r="I24" s="0" t="n">
-        <f aca="false">E24/(EXP(B24*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D24/(EXP(B24*$B$2/($B$1*$B$3))-1)</f>
         <v>7.04356811365793E-017</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <f aca="false">I24-F24</f>
-        <v>6.91784011365793E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1.036</v>
@@ -977,29 +1002,26 @@
         <v>1.14911</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="E25" s="0" t="n">
         <v>29.1088</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>50</v>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <f aca="false">I25-E25</f>
+        <v>1.11723482562516E-016</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1.25845</v>
       </c>
       <c r="I25" s="0" t="n">
-        <f aca="false">E25/(EXP(B25*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D25/(EXP(B25*$B$2/($B$1*$B$3))-1)</f>
         <v>1.13168352562516E-016</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <f aca="false">I25-F25</f>
-        <v>1.11723482562516E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1.009</v>
@@ -1008,29 +1030,26 @@
         <v>1.15246</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="E26" s="0" t="n">
         <v>21.7244</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>52</v>
+      <c r="E26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <f aca="false">I26-E26</f>
+        <v>2.39152468119466E-016</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>0.389055</v>
       </c>
       <c r="I26" s="0" t="n">
-        <f aca="false">E26/(EXP(B26*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D26/(EXP(B26*$B$2/($B$1*$B$3))-1)</f>
         <v>2.40099803119466E-016</v>
-      </c>
-      <c r="J26" s="0" t="n">
-        <f aca="false">I26-F26</f>
-        <v>2.39152468119466E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>0.979</v>
@@ -1039,29 +1058,26 @@
         <v>1.15125</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>20.7</v>
-      </c>
-      <c r="E27" s="0" t="n">
         <v>22.0774</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>54</v>
+      <c r="E27" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <f aca="false">I27-E27</f>
+        <v>7.78015815057052E-016</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0.127743</v>
       </c>
       <c r="I27" s="0" t="n">
-        <f aca="false">E27/(EXP(B27*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D27/(EXP(B27*$B$2/($B$1*$B$3))-1)</f>
         <v>7.79024625057052E-016</v>
-      </c>
-      <c r="J27" s="0" t="n">
-        <f aca="false">I27-F27</f>
-        <v>7.78015815057052E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1.019</v>
@@ -1070,29 +1086,26 @@
         <v>1.1528</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>21.5</v>
-      </c>
-      <c r="E28" s="0" t="n">
         <v>21.5277</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>56</v>
+      <c r="E28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <f aca="false">I28-E28</f>
+        <v>1.60653806190978E-016</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0.565353</v>
       </c>
       <c r="I28" s="0" t="n">
-        <f aca="false">E28/(EXP(B28*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D28/(EXP(B28*$B$2/($B$1*$B$3))-1)</f>
         <v>1.61580357190978E-016</v>
-      </c>
-      <c r="J28" s="0" t="n">
-        <f aca="false">I28-F28</f>
-        <v>1.60653806190978E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1.026</v>
@@ -1101,29 +1114,26 @@
         <v>1.15149</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>27</v>
-      </c>
-      <c r="E29" s="0" t="n">
         <v>29.1423</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>58</v>
+      <c r="E29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <f aca="false">I29-E29</f>
+        <v>1.65511884727142E-016</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0.779662</v>
       </c>
       <c r="I29" s="0" t="n">
-        <f aca="false">E29/(EXP(B29*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D29/(EXP(B29*$B$2/($B$1*$B$3))-1)</f>
         <v>1.66831324727142E-016</v>
-      </c>
-      <c r="J29" s="0" t="n">
-        <f aca="false">I29-F29</f>
-        <v>1.65511884727142E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>0.959</v>
@@ -1132,29 +1142,26 @@
         <v>1.15206</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E30" s="0" t="n">
         <v>20.1766</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>60</v>
+      <c r="E30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <f aca="false">I30-E30</f>
+        <v>1.54278708460898E-015</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0.0571057</v>
       </c>
       <c r="I30" s="0" t="n">
-        <f aca="false">E30/(EXP(B30*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D30/(EXP(B30*$B$2/($B$1*$B$3))-1)</f>
         <v>1.54368046460898E-015</v>
-      </c>
-      <c r="J30" s="0" t="n">
-        <f aca="false">I30-F30</f>
-        <v>1.54278708460898E-015</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1.028</v>
@@ -1163,29 +1170,26 @@
         <v>1.1482</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="E31" s="0" t="n">
         <v>20.5595</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>62</v>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <f aca="false">I31-E31</f>
+        <v>1.07875097297655E-016</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0.956506</v>
       </c>
       <c r="I31" s="0" t="n">
-        <f aca="false">E31/(EXP(B31*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D31/(EXP(B31*$B$2/($B$1*$B$3))-1)</f>
         <v>1.08932057297655E-016</v>
-      </c>
-      <c r="J31" s="0" t="n">
-        <f aca="false">I31-F31</f>
-        <v>1.07875097297655E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.996</v>
@@ -1194,29 +1198,26 @@
         <v>1.14386</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="E32" s="0" t="n">
         <v>18.4515</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>64</v>
+      <c r="E32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <f aca="false">I32-E32</f>
+        <v>3.36122071760788E-016</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>0.328201</v>
       </c>
       <c r="I32" s="0" t="n">
-        <f aca="false">E32/(EXP(B32*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D32/(EXP(B32*$B$2/($B$1*$B$3))-1)</f>
         <v>3.37244361760788E-016</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <f aca="false">I32-F32</f>
-        <v>3.36122071760788E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1.02</v>
@@ -1225,29 +1226,26 @@
         <v>1.14527</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="E33" s="0" t="n">
         <v>18.822</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>66</v>
+      <c r="E33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <f aca="false">I33-E33</f>
+        <v>1.34826143608269E-016</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>0.786232</v>
       </c>
       <c r="I33" s="0" t="n">
-        <f aca="false">E33/(EXP(B33*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D33/(EXP(B33*$B$2/($B$1*$B$3))-1)</f>
         <v>1.35909993608269E-016</v>
-      </c>
-      <c r="J33" s="0" t="n">
-        <f aca="false">I33-F33</f>
-        <v>1.34826143608269E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1.052</v>
@@ -1256,29 +1254,26 @@
         <v>1.14865</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="E34" s="0" t="n">
         <v>20.781</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>68</v>
+      <c r="E34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <f aca="false">I34-E34</f>
+        <v>4.24491934156741E-017</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>2.37897</v>
       </c>
       <c r="I34" s="0" t="n">
-        <f aca="false">E34/(EXP(B34*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D34/(EXP(B34*$B$2/($B$1*$B$3))-1)</f>
         <v>4.34992934156741E-017</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <f aca="false">I34-F34</f>
-        <v>4.24491934156741E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1.038</v>
@@ -1287,29 +1282,26 @@
         <v>1.14839</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="E35" s="0" t="n">
         <v>21.051</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>70</v>
+      <c r="E35" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <f aca="false">I35-E35</f>
+        <v>7.46722611763991E-017</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1.39791</v>
       </c>
       <c r="I35" s="0" t="n">
-        <f aca="false">E35/(EXP(B35*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D35/(EXP(B35*$B$2/($B$1*$B$3))-1)</f>
         <v>7.57465411763991E-017</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <f aca="false">I35-F35</f>
-        <v>7.46722611763991E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1.013</v>
@@ -1318,29 +1310,26 @@
         <v>1.14299</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="E36" s="0" t="n">
         <v>21.1752</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>72</v>
+      <c r="E36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <f aca="false">I36-E36</f>
+        <v>1.99138860525639E-016</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>0.654914</v>
       </c>
       <c r="I36" s="0" t="n">
-        <f aca="false">E36/(EXP(B36*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D36/(EXP(B36*$B$2/($B$1*$B$3))-1)</f>
         <v>2.00470420525639E-016</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <f aca="false">I36-F36</f>
-        <v>1.99138860525639E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1.016</v>
@@ -1349,27 +1338,250 @@
         <v>1.14154</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>26.1</v>
-      </c>
-      <c r="E37" s="0" t="n">
         <v>28.8024</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>74</v>
+      <c r="E37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <f aca="false">I37-E37</f>
+        <v>2.40876638859336E-016</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>0.778069</v>
       </c>
       <c r="I37" s="0" t="n">
-        <f aca="false">E37/(EXP(B37*$B$2/($B$1*$B$3))-1)</f>
+        <f aca="false">D37/(EXP(B37*$B$2/($B$1*$B$3))-1)</f>
         <v>2.42792648859336E-016</v>
       </c>
-      <c r="J37" s="0" t="n">
-        <f aca="false">I37-F37</f>
-        <v>2.40876638859336E-016</v>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
+      <c r="E38" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="39">
+      <c r="A39" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
+      <c r="A40" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>1.12322</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>19.3732</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>1.25294</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
+      <c r="A41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>1.12651</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>21.711</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>2.39142</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
+      <c r="A42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>1.12528</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>13.8128</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>3.69267</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
+      <c r="A43" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>1.12101</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>19.6883</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>1.36478</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
+      <c r="A44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1.12082</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>19.7314</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>2.98033</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
+      <c r="A45" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>1.12116</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>18.1248</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.626067</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
+      <c r="A46" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>1.12628</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>26.3237</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>1.0711</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
+      <c r="A47" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>1.12517</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>20.1414</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.676141</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
+      <c r="A48" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>1.12021</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>20.0813</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.675078</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A39:I39"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
@@ -1387,17 +1599,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -1412,17 +1624,17 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/data/cellscompared.xlsx
+++ b/data/cellscompared.xlsx
@@ -5,19 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="105" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="332" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ELO" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="SUB" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t>k</t>
   </si>
@@ -52,258 +52,255 @@
     <t>J0</t>
   </si>
   <si>
+    <t>w1744ARC</t>
+  </si>
+  <si>
+    <t>1.44487e-18</t>
+  </si>
+  <si>
+    <t>w1744</t>
+  </si>
+  <si>
+    <t>1.25728e-18</t>
+  </si>
+  <si>
+    <t>w1743E</t>
+  </si>
+  <si>
+    <t>1.00881e-18</t>
+  </si>
+  <si>
+    <t>w1743B</t>
+  </si>
+  <si>
+    <t>9.47335e-19</t>
+  </si>
+  <si>
+    <t>w1735ARC</t>
+  </si>
+  <si>
+    <t>1.31944e-18</t>
+  </si>
+  <si>
+    <t>w1735</t>
+  </si>
+  <si>
+    <t>9.26551e-19</t>
+  </si>
+  <si>
+    <t>w1734</t>
+  </si>
+  <si>
+    <t>1.05696e-18</t>
+  </si>
+  <si>
+    <t>w1718</t>
+  </si>
+  <si>
+    <t>1.12229e-18</t>
+  </si>
+  <si>
+    <t>w1717</t>
+  </si>
+  <si>
+    <t>1.08385e-18</t>
+  </si>
+  <si>
+    <t>w1714</t>
+  </si>
+  <si>
+    <t>8.9338e-19</t>
+  </si>
+  <si>
+    <t>w1707-2</t>
+  </si>
+  <si>
+    <t>1.07428e-18</t>
+  </si>
+  <si>
+    <t>w1707-1</t>
+  </si>
+  <si>
+    <t>1.0501e-18</t>
+  </si>
+  <si>
+    <t>w1703</t>
+  </si>
+  <si>
+    <t>1.51929e-18</t>
+  </si>
+  <si>
+    <t>w1699ARC</t>
+  </si>
+  <si>
+    <t>1.91601e-18</t>
+  </si>
+  <si>
+    <t>w1699</t>
+  </si>
+  <si>
+    <t>1.33156e-18</t>
+  </si>
+  <si>
+    <t>w1691</t>
+  </si>
+  <si>
+    <t>1.33625e-18</t>
+  </si>
+  <si>
+    <t>w1689</t>
+  </si>
+  <si>
+    <t>1.47696e-18</t>
+  </si>
+  <si>
+    <t>W1689</t>
+  </si>
+  <si>
+    <t>2.61746e-18</t>
+  </si>
+  <si>
+    <t>2.06287e-16</t>
+  </si>
+  <si>
+    <t>w1683</t>
+  </si>
+  <si>
+    <t>9.06516e-19</t>
+  </si>
+  <si>
+    <t>W1683</t>
+  </si>
+  <si>
+    <t>2.58283e-18</t>
+  </si>
+  <si>
+    <t>1.05421e-16</t>
+  </si>
+  <si>
+    <t>w1682</t>
+  </si>
+  <si>
+    <t>4.5809e-19</t>
+  </si>
+  <si>
+    <t>w1680</t>
+  </si>
+  <si>
+    <t>4.52588e-19</t>
+  </si>
+  <si>
+    <t>w1679</t>
+  </si>
+  <si>
+    <t>4.43347e-19</t>
+  </si>
+  <si>
+    <t>w1678</t>
+  </si>
+  <si>
+    <t>4.23014e-19</t>
+  </si>
+  <si>
+    <t>w1675</t>
+  </si>
+  <si>
+    <t>4.38674e-19</t>
+  </si>
+  <si>
+    <t>w1674</t>
+  </si>
+  <si>
+    <t>4.54775e-19</t>
+  </si>
+  <si>
+    <t>w1672</t>
+  </si>
+  <si>
+    <t>4.4648e-19</t>
+  </si>
+  <si>
+    <t>w1671</t>
+  </si>
+  <si>
+    <t>4.55803e-19</t>
+  </si>
+  <si>
+    <t>w1670</t>
+  </si>
+  <si>
+    <t>4.26603e-19</t>
+  </si>
+  <si>
+    <t>W1670</t>
+  </si>
+  <si>
+    <t>1.72342e-18</t>
+  </si>
+  <si>
+    <t>4.49478e-17</t>
+  </si>
+  <si>
+    <t>w1664</t>
+  </si>
+  <si>
+    <t>1.20487e-18</t>
+  </si>
+  <si>
+    <t>W1664</t>
+  </si>
+  <si>
+    <t>2.89745e-18</t>
+  </si>
+  <si>
+    <t>2.09404e-16</t>
+  </si>
+  <si>
+    <t>w1662</t>
+  </si>
+  <si>
+    <t>1.1597e-18</t>
+  </si>
+  <si>
+    <t>W1662</t>
+  </si>
+  <si>
+    <t>2.92539e-18</t>
+  </si>
+  <si>
+    <t>9.52313e-17</t>
+  </si>
+  <si>
+    <t>w1660</t>
+  </si>
+  <si>
+    <t>1.1024e-18</t>
+  </si>
+  <si>
+    <t>W1660</t>
+  </si>
+  <si>
+    <t>2.65231e-18</t>
+  </si>
+  <si>
+    <t>4.20995e-16</t>
+  </si>
+  <si>
+    <t>W1657</t>
+  </si>
+  <si>
+    <t>3.16026e-18</t>
+  </si>
+  <si>
+    <t>2.91887e-16</t>
+  </si>
+  <si>
     <t>w1642</t>
   </si>
   <si>
     <t>1.04807e-18</t>
   </si>
   <si>
-    <t>w1660</t>
-  </si>
-  <si>
-    <t>1.1024e-18</t>
-  </si>
-  <si>
-    <t>w1662</t>
-  </si>
-  <si>
-    <t>1.1597e-18</t>
-  </si>
-  <si>
-    <t>w1664</t>
-  </si>
-  <si>
-    <t>1.20487e-18</t>
-  </si>
-  <si>
-    <t>w1670</t>
-  </si>
-  <si>
-    <t>4.26603e-19</t>
-  </si>
-  <si>
-    <t>w1671</t>
-  </si>
-  <si>
-    <t>4.55803e-19</t>
-  </si>
-  <si>
-    <t>w1672</t>
-  </si>
-  <si>
-    <t>4.4648e-19</t>
-  </si>
-  <si>
-    <t>w1674</t>
-  </si>
-  <si>
-    <t>4.54775e-19</t>
-  </si>
-  <si>
-    <t>w1675</t>
-  </si>
-  <si>
-    <t>4.38674e-19</t>
-  </si>
-  <si>
-    <t>w1678</t>
-  </si>
-  <si>
-    <t>4.23014e-19</t>
-  </si>
-  <si>
-    <t>w1679</t>
-  </si>
-  <si>
-    <t>4.43347e-19</t>
-  </si>
-  <si>
-    <t>w1680</t>
-  </si>
-  <si>
-    <t>4.52588e-19</t>
-  </si>
-  <si>
-    <t>w1682</t>
-  </si>
-  <si>
-    <t>4.5809e-19</t>
-  </si>
-  <si>
-    <t>w1683</t>
-  </si>
-  <si>
-    <t>9.06516e-19</t>
-  </si>
-  <si>
-    <t>w1689</t>
-  </si>
-  <si>
-    <t>1.47696e-18</t>
-  </si>
-  <si>
-    <t>w1691</t>
-  </si>
-  <si>
-    <t>1.33625e-18</t>
-  </si>
-  <si>
-    <t>w1703</t>
-  </si>
-  <si>
-    <t>1.51929e-18</t>
-  </si>
-  <si>
-    <t>w1744</t>
-  </si>
-  <si>
-    <t>1.25728e-18</t>
-  </si>
-  <si>
-    <t>w1744ARC</t>
-  </si>
-  <si>
-    <t>1.44487e-18</t>
-  </si>
-  <si>
-    <t>w1743B</t>
-  </si>
-  <si>
-    <t>9.47335e-19</t>
-  </si>
-  <si>
-    <t>w1743E</t>
-  </si>
-  <si>
-    <t>1.00881e-18</t>
-  </si>
-  <si>
-    <t>w1735</t>
-  </si>
-  <si>
-    <t>9.26551e-19</t>
-  </si>
-  <si>
-    <t>w1735ARC</t>
-  </si>
-  <si>
-    <t>1.31944e-18</t>
-  </si>
-  <si>
-    <t>w1714</t>
-  </si>
-  <si>
-    <t>8.9338e-19</t>
-  </si>
-  <si>
-    <t>w1734</t>
-  </si>
-  <si>
-    <t>1.05696e-18</t>
-  </si>
-  <si>
-    <t>w1718</t>
-  </si>
-  <si>
-    <t>1.12229e-18</t>
-  </si>
-  <si>
-    <t>w1717</t>
-  </si>
-  <si>
-    <t>1.08385e-18</t>
-  </si>
-  <si>
-    <t>w1707-1</t>
-  </si>
-  <si>
-    <t>1.0501e-18</t>
-  </si>
-  <si>
-    <t>w1707-2</t>
-  </si>
-  <si>
-    <t>1.07428e-18</t>
-  </si>
-  <si>
-    <t>w1699</t>
-  </si>
-  <si>
-    <t>1.33156e-18</t>
-  </si>
-  <si>
-    <t>w1699ARC</t>
-  </si>
-  <si>
-    <t>1.91601e-18</t>
-  </si>
-  <si>
-    <t>3nm resolutie</t>
-  </si>
-  <si>
-    <t>W1689</t>
-  </si>
-  <si>
-    <t>2.61746e-18</t>
-  </si>
-  <si>
-    <t>2.06287e-16</t>
-  </si>
-  <si>
-    <t>W1683</t>
-  </si>
-  <si>
-    <t>2.58283e-18</t>
-  </si>
-  <si>
-    <t>1.05421e-16</t>
-  </si>
-  <si>
-    <t>W1670</t>
-  </si>
-  <si>
-    <t>1.72342e-18</t>
-  </si>
-  <si>
-    <t>4.49478e-17</t>
-  </si>
-  <si>
-    <t>W1664</t>
-  </si>
-  <si>
-    <t>2.89745e-18</t>
-  </si>
-  <si>
-    <t>2.09404e-16</t>
-  </si>
-  <si>
-    <t>W1662</t>
-  </si>
-  <si>
-    <t>2.92539e-18</t>
-  </si>
-  <si>
-    <t>9.52313e-17</t>
-  </si>
-  <si>
-    <t>W1660</t>
-  </si>
-  <si>
-    <t>2.65231e-18</t>
-  </si>
-  <si>
-    <t>4.20995e-16</t>
-  </si>
-  <si>
-    <t>W1657</t>
-  </si>
-  <si>
-    <t>3.16026e-18</t>
-  </si>
-  <si>
-    <t>2.91887e-16</t>
-  </si>
-  <si>
     <t>W1642</t>
   </si>
   <si>
@@ -320,17 +317,75 @@
   </si>
   <si>
     <t>4.48519e-16</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>thick</t>
+  </si>
+  <si>
+    <t>P-ctc</t>
+  </si>
+  <si>
+    <t>basedope</t>
+  </si>
+  <si>
+    <t>voc</t>
+  </si>
+  <si>
+    <t>voc lim</t>
+  </si>
+  <si>
+    <t>jsc</t>
+  </si>
+  <si>
+    <t>j0r</t>
+  </si>
+  <si>
+    <t>j0nr</t>
+  </si>
+  <si>
+    <t>ere</t>
+  </si>
+  <si>
+    <t>9.26551E-19</t>
+  </si>
+  <si>
+    <t>2.61746E-18</t>
+  </si>
+  <si>
+    <t>2.58283E-18</t>
+  </si>
+  <si>
+    <t>2.89745E-18</t>
+  </si>
+  <si>
+    <t>2.92539E-18</t>
+  </si>
+  <si>
+    <t>2.65231E-18</t>
+  </si>
+  <si>
+    <t>3.16026E-18</t>
+  </si>
+  <si>
+    <t>2.52384E-18</t>
+  </si>
+  <si>
+    <t>3.04844E-18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
     <numFmt formatCode="@" numFmtId="165"/>
+    <numFmt formatCode="0.00E+000" numFmtId="166"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -351,6 +406,16 @@
       <name val="Arial"/>
       <family val="0"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="9"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,12 +460,11 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -410,7 +474,2687 @@
     <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
     <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00B3B3B3"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00004586"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$C$3,ELO!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$F$3,ELO!$F$5:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.12322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.12101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.12116</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12628</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.12517</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.12021</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="36310060"/>
+        <c:axId val="10278843"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="36310060"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>p-ctc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="10278843"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="10278843"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Voc Lim (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="36310060"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.12322</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.12651</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.12101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.12082</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.12116</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.12628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="48292258"/>
+        <c:axId val="62993879"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="48292258"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>thickness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62993879"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="62993879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Voc lim</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="48292258"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$C$3,ELO!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$I$3,ELO!$I$5:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.06287E-016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.09404E-016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.52313E-017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.20995E-016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.91887E-016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.70748E-016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.48519E-016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="51256048"/>
+        <c:axId val="56984328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="51256048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>p-ctc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="56984328"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="56984328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>J0 non rad (mA/cm^3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="51256048"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.06287E-016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.05421E-016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.09404E-016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.52313E-017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.20995E-016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.91887E-016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="42682378"/>
+        <c:axId val="26062382"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="42682378"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>thickness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="26062382"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="26062382"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>J0 non rad (mA/cm^3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="42682378"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$B$3:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$J$3:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.25294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.39142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.36478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.98033</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.626067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="80072642"/>
+        <c:axId val="1582452"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80072642"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Thickness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1582452"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1582452"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>ERE (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80072642"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$C$3,ELO!$C$5:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$J$3,ELO!$J$5:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.25294</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36478</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.98033</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.626067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0711</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.676141</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.675078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="21276931"/>
+        <c:axId val="64106567"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="21276931"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>p-ctc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="64106567"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="64106567"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>ERE (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="21276931"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.1482</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14386</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14527</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.14865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="74120234"/>
+        <c:axId val="85911908"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="74120234"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Basedoping (/10^16)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="85911908"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="85911908"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Voc Limit (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="74120234"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$I$2:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.07875097297655E-016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.36122071760788E-016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34826143608269E-016</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.24491934156741E-017</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14741233881266E-016</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.04632815059097E-015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="76869135"/>
+        <c:axId val="96209646"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76869135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Basedoping (/10^16)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="96209646"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="96209646"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>J 0 non-rad (mA/cm^3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76869135"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$J$2:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.956506</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.328201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.786232</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.37897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0643961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="99595330"/>
+        <c:axId val="13434919"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="99595330"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Basedoping (/10^16)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="13434919"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="13434919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>ERE (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="99595330"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$F$7:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.14396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.15948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.16148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.16043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.16218</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.16232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1611</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.16126</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.16115</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.16305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="72809158"/>
+        <c:axId val="95602265"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="72809158"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>thickness (mu m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="95602265"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="95602265"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Voc limit (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="72809158"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$I$7:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.04632815059097E-015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.90539913363958E-017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.16891406915573E-017</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1863680249762E-016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.88627429424401E-017</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0595627875853E-016</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.54445983152992E-016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.74837664181835E-017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.82607201897442E-017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.86559168741767E-017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="44433072"/>
+        <c:axId val="7802764"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="44433072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>thickness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="7802764"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="7802764"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Jo nr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="44433072"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$B$7:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$J$7:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0643961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.453845</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.618426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.137043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.601842</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.406493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.289492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.918128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.922171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.856659</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="32402215"/>
+        <c:axId val="60377360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="32402215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>thickness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60377360"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="60377360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>ERE(%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="32402215"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>128880</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="128880" y="2319840"/>
+        <a:ext cx="5760720" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100080</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113400</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6315840" y="2358360"/>
+        <a:ext cx="5760720" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>89280</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>455400</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>119160</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="89280" y="5794920"/>
+        <a:ext cx="5760720" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>119880</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>131040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6335640" y="5823720"/>
+        <a:ext cx="5760720" cy="3244320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>110160</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113400</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6325920" y="9866880"/>
+        <a:ext cx="5750640" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>59400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>24840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>415800</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>42120</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="59400" y="9712800"/>
+        <a:ext cx="5751000" cy="3244320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>307080</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>752040</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>102240</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="307080" y="2704680"/>
+        <a:ext cx="5761080" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257760</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>702720</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>11880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="257760" y="9375840"/>
+        <a:ext cx="5761080" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>267840</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>141120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>702720</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="267840" y="5987520"/>
+        <a:ext cx="5751000" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10440</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>40320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>22680</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6147360" y="2813040"/>
+        <a:ext cx="5759640" cy="3239640"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>20520</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34200</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6157440" y="6199200"/>
+        <a:ext cx="5761080" cy="3243960"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100080</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>54000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103680</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>71280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="6237000" y="9895680"/>
+        <a:ext cx="5751000" cy="3244320"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -418,21 +3162,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A10" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A50" activeCellId="0" pane="topLeft" sqref="A50"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A4" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F35" activeCellId="0" pane="topLeft" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.521568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.243137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3098039215686"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.4666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3803921568627"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -461,7 +3205,7 @@
         <v>300</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
         <v>3</v>
       </c>
@@ -492,27 +3236,27 @@
         <v>11</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.996</v>
+        <v>1.036</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1.14923</v>
+        <v>1.14911</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>21.2163</v>
+        <v>29.1088</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="0" t="n">
         <f aca="false">I7-E7</f>
-        <v>3.867294848018E-016</v>
+        <v>1.11723482562516E-016</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0.266554</v>
+        <v>1.25845</v>
       </c>
       <c r="I7" s="0" t="n">
         <f aca="false">D7/(EXP(B7*$B$2/($B$1*$B$3))-1)</f>
-        <v>3.877775548018E-016</v>
+        <v>1.13168352562516E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -520,27 +3264,27 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.99</v>
+        <v>1.041</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>1.14567</v>
+        <v>1.14545</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>19.4396</v>
+        <v>21.9846</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="0" t="n">
         <f aca="false">I8-E8</f>
-        <v>4.47056673607642E-016</v>
+        <v>6.91784011365793E-017</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.242615</v>
+        <v>1.75932</v>
       </c>
       <c r="I8" s="0" t="n">
         <f aca="false">D8/(EXP(B8*$B$2/($B$1*$B$3))-1)</f>
-        <v>4.48159073607642E-016</v>
+        <v>7.04356811365793E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -548,27 +3292,27 @@
         <v>15</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1.03</v>
+        <v>0.979</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>1.14658</v>
+        <v>1.15125</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>21.1872</v>
+        <v>22.0774</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="0" t="n">
         <f aca="false">I9-E9</f>
-        <v>1.02738041488489E-016</v>
+        <v>7.78015815057052E-016</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1.1003</v>
+        <v>0.127743</v>
       </c>
       <c r="I9" s="0" t="n">
         <f aca="false">D9/(EXP(B9*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.03897741488489E-016</v>
+        <v>7.79024625057052E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -576,27 +3320,27 @@
         <v>17</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>1.01</v>
+        <v>1.009</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>1.14609</v>
+        <v>1.15246</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>21.5994</v>
+        <v>21.7244</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="0" t="n">
         <f aca="false">I10-E10</f>
-        <v>2.28452502800887E-016</v>
+        <v>2.39152468119466E-016</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.517311</v>
+        <v>0.389055</v>
       </c>
       <c r="I10" s="0" t="n">
         <f aca="false">D10/(EXP(B10*$B$2/($B$1*$B$3))-1)</f>
-        <v>2.29657372800887E-016</v>
+        <v>2.40099803119466E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -604,27 +3348,27 @@
         <v>19</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1.04</v>
+        <v>1.026</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>1.16305</v>
+        <v>1.15149</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>14.7383</v>
+        <v>29.1423</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="0" t="n">
         <f aca="false">I11-E11</f>
-        <v>4.86559168741767E-017</v>
+        <v>1.65511884727142E-016</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.856659</v>
+        <v>0.779662</v>
       </c>
       <c r="I11" s="0" t="n">
         <f aca="false">D11/(EXP(B11*$B$2/($B$1*$B$3))-1)</f>
-        <v>4.90825198741767E-017</v>
+        <v>1.66831324727142E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -632,27 +3376,27 @@
         <v>21</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1.04</v>
+        <v>1.019</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>1.16115</v>
+        <v>1.1528</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>14.6284</v>
+        <v>21.5277</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="0" t="n">
         <f aca="false">I12-E12</f>
-        <v>4.82607201897442E-017</v>
+        <v>1.60653806190978E-016</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.922171</v>
+        <v>0.565353</v>
       </c>
       <c r="I12" s="0" t="n">
         <f aca="false">D12/(EXP(B12*$B$2/($B$1*$B$3))-1)</f>
-        <v>4.87165231897442E-017</v>
+        <v>1.61580357190978E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -660,27 +3404,27 @@
         <v>23</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>1.04</v>
+        <v>1.028</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>1.16126</v>
+        <v>1.1482</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>14.3923</v>
+        <v>20.5595</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F13" s="0" t="n">
         <f aca="false">I13-E13</f>
-        <v>4.74837664181835E-017</v>
+        <v>1.07875097297655E-016</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.918128</v>
+        <v>0.956506</v>
       </c>
       <c r="I13" s="0" t="n">
         <f aca="false">D13/(EXP(B13*$B$2/($B$1*$B$3))-1)</f>
-        <v>4.79302464181835E-017</v>
+        <v>1.08932057297655E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -688,27 +3432,27 @@
         <v>25</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1.01</v>
+        <v>0.996</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>1.1611</v>
+        <v>1.14386</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>14.5685</v>
+        <v>18.4515</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="0" t="n">
         <f aca="false">I14-E14</f>
-        <v>1.54445983152992E-016</v>
+        <v>3.36122071760788E-016</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.289492</v>
+        <v>0.328201</v>
       </c>
       <c r="I14" s="0" t="n">
         <f aca="false">D14/(EXP(B14*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.54900758152991E-016</v>
+        <v>3.37244361760788E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -719,24 +3463,24 @@
         <v>1.02</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>1.16232</v>
+        <v>1.14527</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>14.7345</v>
+        <v>18.822</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="0" t="n">
         <f aca="false">I15-E15</f>
-        <v>1.0595627875853E-016</v>
+        <v>1.34826143608269E-016</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.406493</v>
+        <v>0.786232</v>
       </c>
       <c r="I15" s="0" t="n">
         <f aca="false">D15/(EXP(B15*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.0639495275853E-016</v>
+        <v>1.35909993608269E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -744,27 +3488,27 @@
         <v>29</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1.03</v>
+        <v>0.959</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>1.16218</v>
+        <v>1.15206</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>14.129</v>
+        <v>20.1766</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F16" s="0" t="n">
         <f aca="false">I16-E16</f>
-        <v>6.88627429424401E-017</v>
+        <v>1.54278708460898E-015</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.601842</v>
+        <v>0.0571057</v>
       </c>
       <c r="I16" s="0" t="n">
         <f aca="false">D16/(EXP(B16*$B$2/($B$1*$B$3))-1)</f>
-        <v>6.92857569424401E-017</v>
+        <v>1.54368046460898E-015</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -772,27 +3516,27 @@
         <v>31</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.99</v>
+        <v>1.038</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1.16043</v>
+        <v>1.14839</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>13.8406</v>
+        <v>21.051</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="0" t="n">
         <f aca="false">I17-E17</f>
-        <v>3.1863680249762E-016</v>
+        <v>7.46722611763991E-017</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.137043</v>
+        <v>1.39791</v>
       </c>
       <c r="I17" s="0" t="n">
         <f aca="false">D17/(EXP(B17*$B$2/($B$1*$B$3))-1)</f>
-        <v>3.1908014949762E-016</v>
+        <v>7.57465411763991E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -800,27 +3544,27 @@
         <v>33</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1.03</v>
+        <v>1.052</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>1.16148</v>
+        <v>1.14865</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>14.7114</v>
+        <v>20.781</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F18" s="0" t="n">
         <f aca="false">I18-E18</f>
-        <v>7.16891406915573E-017</v>
+        <v>4.24491934156741E-017</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.618426</v>
+        <v>2.37897</v>
       </c>
       <c r="I18" s="0" t="n">
         <f aca="false">D18/(EXP(B18*$B$2/($B$1*$B$3))-1)</f>
-        <v>7.21417286915573E-017</v>
+        <v>4.34992934156741E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -828,27 +3572,27 @@
         <v>35</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1.02</v>
+        <v>1.035</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1.15948</v>
+        <v>1.14751</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>13.7813</v>
+        <v>28.7691</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F19" s="0" t="n">
         <f aca="false">I19-E19</f>
-        <v>9.90539913363958E-017</v>
+        <v>1.14741233881266E-016</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.453845</v>
+        <v>1.2881</v>
       </c>
       <c r="I19" s="0" t="n">
         <f aca="false">D19/(EXP(B19*$B$2/($B$1*$B$3))-1)</f>
-        <v>9.95120813363958E-017</v>
+        <v>1.16260523881266E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -856,27 +3600,27 @@
         <v>37</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1.03</v>
+        <v>1.016</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1.14917</v>
+        <v>1.14154</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>18.3029</v>
+        <v>28.8024</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="0" t="n">
         <f aca="false">I20-E20</f>
-        <v>8.88472019377017E-017</v>
+        <v>2.40876638859336E-016</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.995622</v>
+        <v>0.778069</v>
       </c>
       <c r="I20" s="0" t="n">
         <f aca="false">D20/(EXP(B20*$B$2/($B$1*$B$3))-1)</f>
-        <v>8.97537179377017E-017</v>
+        <v>2.42792648859336E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -884,27 +3628,27 @@
         <v>39</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1.01</v>
+        <v>1.013</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1.14101</v>
+        <v>1.14299</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>21.7549</v>
+        <v>21.1752</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="0" t="n">
         <f aca="false">I21-E21</f>
-        <v>2.29833779166182E-016</v>
+        <v>1.99138860525639E-016</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>0.629601</v>
+        <v>0.654914</v>
       </c>
       <c r="I21" s="0" t="n">
         <f aca="false">D21/(EXP(B21*$B$2/($B$1*$B$3))-1)</f>
-        <v>2.31310739166181E-016</v>
+        <v>2.00470420525639E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -940,27 +3684,27 @@
         <v>43</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1.035</v>
+        <v>1.01</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1.14751</v>
+        <v>1.14101</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>28.7691</v>
+        <v>21.7549</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>44</v>
       </c>
       <c r="F23" s="0" t="n">
         <f aca="false">I23-E23</f>
-        <v>1.14741233881266E-016</v>
+        <v>2.29833779166182E-016</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>1.2881</v>
+        <v>0.629601</v>
       </c>
       <c r="I23" s="0" t="n">
         <f aca="false">D23/(EXP(B23*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.16260523881266E-016</v>
+        <v>2.31310739166181E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -968,620 +3712,601 @@
         <v>45</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1.041</v>
+        <v>1.01</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1.14545</v>
+        <v>1.12322</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>21.9846</v>
+        <v>19.3732</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <f aca="false">I24-E24</f>
-        <v>6.91784011365793E-017</v>
+      <c r="F24" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>1.75932</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <f aca="false">D24/(EXP(B24*$B$2/($B$1*$B$3))-1)</f>
-        <v>7.04356811365793E-017</v>
+        <v>1.25294</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
       <c r="A25" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>1.036</v>
+        <v>1.03</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1.14911</v>
+        <v>1.14917</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>29.1088</v>
+        <v>18.3029</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F25" s="0" t="n">
         <f aca="false">I25-E25</f>
-        <v>1.11723482562516E-016</v>
+        <v>8.88472019377017E-017</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>1.25845</v>
+        <v>0.995622</v>
       </c>
       <c r="I25" s="0" t="n">
         <f aca="false">D25/(EXP(B25*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.13168352562516E-016</v>
+        <v>8.97537179377017E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
       <c r="A26" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1.009</v>
+        <v>1.03</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1.15246</v>
+        <v>1.12651</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>21.7244</v>
+        <v>21.711</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <f aca="false">I26-E26</f>
-        <v>2.39152468119466E-016</v>
+        <v>51</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.389055</v>
-      </c>
-      <c r="I26" s="0" t="n">
-        <f aca="false">D26/(EXP(B26*$B$2/($B$1*$B$3))-1)</f>
-        <v>2.40099803119466E-016</v>
+        <v>2.39142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
       <c r="A27" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0.979</v>
+        <v>1.02</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1.15125</v>
+        <v>1.15948</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>22.0774</v>
+        <v>13.7813</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">I27-E27</f>
-        <v>7.78015815057052E-016</v>
+        <v>9.90539913363958E-017</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.127743</v>
+        <v>0.453845</v>
       </c>
       <c r="I27" s="0" t="n">
         <f aca="false">D27/(EXP(B27*$B$2/($B$1*$B$3))-1)</f>
-        <v>7.79024625057052E-016</v>
+        <v>9.95120813363958E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
       <c r="A28" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1.019</v>
+        <v>1.03</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1.1528</v>
+        <v>1.16148</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>21.5277</v>
+        <v>14.7114</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">I28-E28</f>
-        <v>1.60653806190978E-016</v>
+        <v>7.16891406915573E-017</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.565353</v>
+        <v>0.618426</v>
       </c>
       <c r="I28" s="0" t="n">
         <f aca="false">D28/(EXP(B28*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.61580357190978E-016</v>
+        <v>7.21417286915573E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
       <c r="A29" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1.026</v>
+        <v>0.99</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1.15149</v>
+        <v>1.16043</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>29.1423</v>
+        <v>13.8406</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="0" t="n">
         <f aca="false">I29-E29</f>
-        <v>1.65511884727142E-016</v>
+        <v>3.1863680249762E-016</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.779662</v>
+        <v>0.137043</v>
       </c>
       <c r="I29" s="0" t="n">
         <f aca="false">D29/(EXP(B29*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.66831324727142E-016</v>
+        <v>3.1908014949762E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
       <c r="A30" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.959</v>
+        <v>1.03</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>1.15206</v>
+        <v>1.16218</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>20.1766</v>
+        <v>14.129</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F30" s="0" t="n">
         <f aca="false">I30-E30</f>
-        <v>1.54278708460898E-015</v>
+        <v>6.88627429424401E-017</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.0571057</v>
+        <v>0.601842</v>
       </c>
       <c r="I30" s="0" t="n">
         <f aca="false">D30/(EXP(B30*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.54368046460898E-015</v>
+        <v>6.92857569424401E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
       <c r="A31" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1.028</v>
+        <v>1.02</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>1.1482</v>
+        <v>1.16232</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>20.5595</v>
+        <v>14.7345</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F31" s="0" t="n">
         <f aca="false">I31-E31</f>
-        <v>1.07875097297655E-016</v>
+        <v>1.0595627875853E-016</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>0.956506</v>
+        <v>0.406493</v>
       </c>
       <c r="I31" s="0" t="n">
         <f aca="false">D31/(EXP(B31*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.08932057297655E-016</v>
+        <v>1.0639495275853E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
       <c r="A32" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.996</v>
+        <v>1.01</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>1.14386</v>
+        <v>1.1611</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>18.4515</v>
+        <v>14.5685</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F32" s="0" t="n">
         <f aca="false">I32-E32</f>
-        <v>3.36122071760788E-016</v>
+        <v>1.54445983152992E-016</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>0.328201</v>
+        <v>0.289492</v>
       </c>
       <c r="I32" s="0" t="n">
         <f aca="false">D32/(EXP(B32*$B$2/($B$1*$B$3))-1)</f>
-        <v>3.37244361760788E-016</v>
+        <v>1.54900758152991E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
       <c r="A33" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>1.14527</v>
+        <v>1.16126</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>18.822</v>
+        <v>14.3923</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F33" s="0" t="n">
         <f aca="false">I33-E33</f>
-        <v>1.34826143608269E-016</v>
+        <v>4.74837664181835E-017</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>0.786232</v>
+        <v>0.918128</v>
       </c>
       <c r="I33" s="0" t="n">
         <f aca="false">D33/(EXP(B33*$B$2/($B$1*$B$3))-1)</f>
-        <v>1.35909993608269E-016</v>
+        <v>4.79302464181835E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
       <c r="A34" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1.052</v>
+        <v>1.04</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>1.14865</v>
+        <v>1.16115</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>20.781</v>
+        <v>14.6284</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F34" s="0" t="n">
         <f aca="false">I34-E34</f>
-        <v>4.24491934156741E-017</v>
+        <v>4.82607201897442E-017</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2.37897</v>
+        <v>0.922171</v>
       </c>
       <c r="I34" s="0" t="n">
         <f aca="false">D34/(EXP(B34*$B$2/($B$1*$B$3))-1)</f>
-        <v>4.34992934156741E-017</v>
+        <v>4.87165231897442E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
       <c r="A35" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>1.038</v>
+        <v>1.04</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>1.14839</v>
+        <v>1.16305</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>21.051</v>
+        <v>14.7383</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F35" s="0" t="n">
         <f aca="false">I35-E35</f>
-        <v>7.46722611763991E-017</v>
+        <v>4.86559168741767E-017</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>1.39791</v>
+        <v>0.856659</v>
       </c>
       <c r="I35" s="0" t="n">
         <f aca="false">D35/(EXP(B35*$B$2/($B$1*$B$3))-1)</f>
-        <v>7.57465411763991E-017</v>
+        <v>4.90825198741767E-017</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
       <c r="A36" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>1.013</v>
+        <v>1.04</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>1.14299</v>
+        <v>1.12528</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>21.1752</v>
+        <v>13.8128</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <f aca="false">I36-E36</f>
-        <v>1.99138860525639E-016</v>
+        <v>72</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>0.654914</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <f aca="false">D36/(EXP(B36*$B$2/($B$1*$B$3))-1)</f>
-        <v>2.00470420525639E-016</v>
+        <v>3.69267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
       <c r="A37" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1.016</v>
+        <v>1.01</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>1.14154</v>
+        <v>1.14609</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>28.8024</v>
+        <v>21.5994</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F37" s="0" t="n">
         <f aca="false">I37-E37</f>
-        <v>2.40876638859336E-016</v>
+        <v>2.28452502800887E-016</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>0.778069</v>
+        <v>0.517311</v>
       </c>
       <c r="I37" s="0" t="n">
         <f aca="false">D37/(EXP(B37*$B$2/($B$1*$B$3))-1)</f>
-        <v>2.42792648859336E-016</v>
+        <v>2.29657372800887E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
-      <c r="E38" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="39">
-      <c r="A39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="A38" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>1.12101</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>19.6883</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>1.36478</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
+      <c r="A39" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>1.14658</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>21.1872</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <f aca="false">I39-E39</f>
+        <v>1.02738041488489E-016</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>1.1003</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <f aca="false">D39/(EXP(B39*$B$2/($B$1*$B$3))-1)</f>
+        <v>1.03897741488489E-016</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
       <c r="A40" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1.12322</v>
+        <v>1.12082</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>19.3732</v>
+        <v>19.7314</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>1.25294</v>
+        <v>2.98033</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
       <c r="A41" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>1.12651</v>
+        <v>1.14567</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>21.711</v>
+        <v>19.4396</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <f aca="false">I41-E41</f>
+        <v>4.47056673607642E-016</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>2.39142</v>
+        <v>0.242615</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <f aca="false">D41/(EXP(B41*$B$2/($B$1*$B$3))-1)</f>
+        <v>4.48159073607642E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
       <c r="A42" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>1.04</v>
+        <v>0.99</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>1.12528</v>
+        <v>1.12116</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>13.8128</v>
+        <v>18.1248</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>3.69267</v>
+        <v>0.626067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
       <c r="A43" s="0" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>1.01</v>
+        <v>1.009</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>1.12101</v>
+        <v>1.12628</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>19.6883</v>
+        <v>26.3237</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>1.36478</v>
+        <v>1.0711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
       <c r="A44" s="0" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>1.03</v>
+        <v>0.996</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>1.12082</v>
+        <v>1.14923</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>19.7314</v>
+        <v>21.2163</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <f aca="false">I44-E44</f>
+        <v>3.867294848018E-016</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>2.98033</v>
+        <v>0.266554</v>
+      </c>
+      <c r="I44" s="0" t="n">
+        <f aca="false">D44/(EXP(B44*$B$2/($B$1*$B$3))-1)</f>
+        <v>3.877775548018E-016</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
       <c r="A45" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.99</v>
+        <v>0.996</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>1.12116</v>
+        <v>1.12517</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>18.1248</v>
+        <v>20.1414</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.626067</v>
+        <v>0.676141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
       <c r="A46" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1.009</v>
+        <v>0.991</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>1.12628</v>
+        <v>1.12021</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>26.3237</v>
+        <v>20.0813</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>1.0711</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
-      <c r="A47" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>0.996</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>1.12517</v>
-      </c>
-      <c r="D47" s="0" t="n">
-        <v>20.1414</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G47" s="0" t="n">
-        <v>0.676141</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
-      <c r="A48" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>1.12021</v>
-      </c>
-      <c r="D48" s="0" t="n">
-        <v>20.0813</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G48" s="0" t="n">
         <v>0.675078</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A39:I39"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
@@ -1597,16 +4322,348 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L4" activeCellId="0" pane="topLeft" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.96078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.01960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.25490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.48627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.2156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6941176470588"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>250</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.019</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1.1528</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>21.5277</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <f aca="false">L2-H2</f>
+        <v>1.60653806190978E-016</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.565353</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>1.61580357190978E-016</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1.12322</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>19.3732</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>2.06287E-016</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>1.25294</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.12651</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>21.711</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="3" t="n">
+        <v>1.05421E-016</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>2.39142</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1.12101</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>19.6883</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="3" t="n">
+        <v>2.09404E-016</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>1.36478</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.12082</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>19.7314</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>9.52313E-017</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>2.98033</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.12116</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>18.1248</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="3" t="n">
+        <v>4.20995E-016</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.626067</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.12628</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>26.3237</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="3" t="n">
+        <v>2.91887E-016</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>1.0711</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.12517</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>20.1414</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I9" s="3" t="n">
+        <v>3.70748E-016</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.676141</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.12021</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>20.0813</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>4.48519E-016</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.675078</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -1614,6 +4671,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1622,16 +4680,536 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="L17" activeCellId="0" pane="topLeft" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.8156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.27843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.11764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.35294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6941176470588"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
+      <c r="A1" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1.1482</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>20.5595</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1.07875097297655E-016</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0.956506</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1.14386</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>18.4515</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>3.36122071760788E-016</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>0.328201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1.14527</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>18.822</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>1.34826143608269E-016</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>0.786232</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1.14865</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>20.781</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>4.24491934156741E-017</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2.37897</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1.14751</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>28.7691</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>1.14741233881266E-016</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1.2881</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1.14396</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>22.0558</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>2.04632815059097E-015</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>0.0643961</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1.15948</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>13.7813</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>9.90539913363958E-017</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>0.453845</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+      <c r="A9" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1.16148</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>14.7114</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>7.16891406915573E-017</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>0.618426</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+      <c r="A10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1.16043</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>13.8406</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>3.1863680249762E-016</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>0.137043</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1.16218</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>14.129</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>6.88627429424401E-017</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>0.601842</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.16232</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>14.7345</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>1.0595627875853E-016</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>0.406493</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1.1611</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>14.5685</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>1.54445983152992E-016</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>0.289492</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1.16126</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>14.3923</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>4.74837664181835E-017</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0.918128</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.16115</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>14.6284</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>4.82607201897442E-017</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>0.922171</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
+      <c r="A16" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1.16305</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>14.7383</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>4.86559168741767E-017</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.856659</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -1639,5 +5217,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/cellscompared.xlsx
+++ b/data/cellscompared.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="332" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="492" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="142">
   <si>
     <t>k</t>
   </si>
@@ -331,6 +331,9 @@
     <t>basedope</t>
   </si>
   <si>
+    <t>comment</t>
+  </si>
+  <si>
     <t>voc</t>
   </si>
   <si>
@@ -349,15 +352,63 @@
     <t>ere</t>
   </si>
   <si>
+    <t>2.58283E-18</t>
+  </si>
+  <si>
+    <t>3.04844E-18</t>
+  </si>
+  <si>
+    <t>W1705E</t>
+  </si>
+  <si>
+    <t>AlGaAs</t>
+  </si>
+  <si>
+    <t>1.24543e-18</t>
+  </si>
+  <si>
+    <t>2.52384E-18</t>
+  </si>
+  <si>
+    <t>W1744</t>
+  </si>
+  <si>
+    <t>AlGaAs, Au Galvano</t>
+  </si>
+  <si>
+    <t>7.5955e-17</t>
+  </si>
+  <si>
+    <t>W1744arc</t>
+  </si>
+  <si>
+    <t>1.00788e-16</t>
+  </si>
+  <si>
+    <t>W1743</t>
+  </si>
+  <si>
+    <t>AlGaAs, Ag</t>
+  </si>
+  <si>
+    <t>8.32649e-19</t>
+  </si>
+  <si>
+    <t>1.96152e-16</t>
+  </si>
+  <si>
     <t>9.26551E-19</t>
   </si>
   <si>
+    <t>W1714G</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
     <t>2.61746E-18</t>
   </si>
   <si>
-    <t>2.58283E-18</t>
-  </si>
-  <si>
     <t>2.89745E-18</t>
   </si>
   <si>
@@ -370,10 +421,28 @@
     <t>3.16026E-18</t>
   </si>
   <si>
-    <t>2.52384E-18</t>
-  </si>
-  <si>
-    <t>3.04844E-18</t>
+    <t>inv</t>
+  </si>
+  <si>
+    <t>W1699</t>
+  </si>
+  <si>
+    <t>2.01987e-16</t>
+  </si>
+  <si>
+    <t>W1696</t>
+  </si>
+  <si>
+    <t>1.58587e-16</t>
+  </si>
+  <si>
+    <t>W1699arc</t>
+  </si>
+  <si>
+    <t>2.34992e-16</t>
+  </si>
+  <si>
+    <t>w1732</t>
   </si>
 </sst>
 </file>
@@ -385,7 +454,7 @@
     <numFmt formatCode="@" numFmtId="165"/>
     <numFmt formatCode="0.00E+000" numFmtId="166"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -411,6 +480,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="true"/>
+      <sz val="9"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -463,8 +538,8 @@
   <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -537,7 +612,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -550,21 +625,21 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
           <c:xVal>
             <c:numRef>
-              <c:f>ELO!$C$3,ELO!$C$5:$C$10</c:f>
+              <c:f>ELO!$C$8:$C$8,ELO!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>300</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>300</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>300</c:v>
@@ -576,50 +651,50 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ELO!$F$3,ELO!$F$5:$F$10</c:f>
+              <c:f>ELO!$G$8:$G$8,ELO!$G$10:$G$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1.15631</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.15206</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1.12322</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>1.12101</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1.12082</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>1.12116</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>1.12628</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.12517</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.12021</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="36310060"/>
-        <c:axId val="10278843"/>
+        <c:axId val="21560101"/>
+        <c:axId val="34685586"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="36310060"/>
+        <c:axId val="21560101"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -634,7 +709,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>p-ctc</a:t>
                 </a:r>
               </a:p>
@@ -645,8 +720,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10278843"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="34685586"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -656,7 +731,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="10278843"/>
+        <c:axId val="34685586"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -671,7 +746,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>Voc Lim (V)</a:t>
                 </a:r>
               </a:p>
@@ -691,1460 +766,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="36310060"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ELO!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ELO!$F$3:$F$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.12322</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.12651</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.12101</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.12082</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.12116</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.12628</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="48292258"/>
-        <c:axId val="62993879"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="48292258"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>thickness</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62993879"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="62993879"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Voc lim</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="48292258"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ELO!$C$3,ELO!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ELO!$I$3,ELO!$I$5:$I$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2.06287E-016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.09404E-016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.52313E-017</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.20995E-016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.91887E-016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.70748E-016</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.48519E-016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="51256048"/>
-        <c:axId val="56984328"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="51256048"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>p-ctc</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56984328"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="56984328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>J0 non rad (mA/cm^3)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51256048"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ELO!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ELO!$I$3:$I$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2.06287E-016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.05421E-016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.09404E-016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.52313E-017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.20995E-016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.91887E-016</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="42682378"/>
-        <c:axId val="26062382"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="42682378"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>thickness</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="26062382"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="26062382"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>J0 non rad (mA/cm^3)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42682378"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ELO!$B$3:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ELO!$J$3:$J$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.25294</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.39142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.36478</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.98033</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.626067</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0711</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="80072642"/>
-        <c:axId val="1582452"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="80072642"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Thickness</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1582452"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1582452"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>ERE (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80072642"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>ELO!$C$3,ELO!$C$5:$C$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>ELO!$J$3,ELO!$J$5:$J$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.25294</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.36478</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.98033</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.626067</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0711</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.676141</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.675078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="21276931"/>
-        <c:axId val="64106567"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="21276931"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>p-ctc</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64106567"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="64106567"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>ERE (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="21276931"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SUB!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SUB!$F$2:$F$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.1482</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.14386</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.14527</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.14865</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.14751</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.14396</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="74120234"/>
-        <c:axId val="85911908"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="74120234"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Basedoping (/10^16)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85911908"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="85911908"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Voc Limit (V)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74120234"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SUB!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SUB!$I$2:$I$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.07875097297655E-016</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.36122071760788E-016</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.34826143608269E-016</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.24491934156741E-017</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.14741233881266E-016</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.04632815059097E-015</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="76869135"/>
-        <c:axId val="96209646"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="76869135"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Basedoping (/10^16)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96209646"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="96209646"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>J 0 non-rad (mA/cm^3)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76869135"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:spPr>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:spPr/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-          </c:spPr>
-          <c:marker/>
-          <c:xVal>
-            <c:numRef>
-              <c:f>SUB!$D$2:$D$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>SUB!$J$2:$J$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.956506</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.328201</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.786232</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.37897</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.2881</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.0643961</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="99595330"/>
-        <c:axId val="13434919"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="99595330"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Basedoping (/10^16)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13434919"/>
-        <c:crosses val="autoZero"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="13434919"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:title>
-          <c:layout/>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>ERE (%)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-        </c:title>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99595330"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="21560101"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2188,94 +811,70 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
           <c:xVal>
             <c:numRef>
-              <c:f>SUB!$B$7:$B$16</c:f>
+              <c:f>ELO!$B$8:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SUB!$F$7:$F$16</c:f>
+              <c:f>ELO!$G$8:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.14396</c:v>
+                  <c:v>1.15631</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.15948</c:v>
+                  <c:v>1.1528</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.16148</c:v>
+                  <c:v>1.15206</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.16043</c:v>
+                  <c:v>1.12322</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.16218</c:v>
+                  <c:v>1.12101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.16232</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1611</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.16126</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.16115</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.16305</c:v>
+                  <c:v>1.12082</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="72809158"/>
-        <c:axId val="95602265"/>
+        <c:axId val="325698"/>
+        <c:axId val="31296819"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="72809158"/>
+        <c:axId val="325698"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,8 +889,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>thickness (mu m)</a:t>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>thickness</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2301,8 +900,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95602265"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="31296819"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2312,7 +911,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95602265"/>
+        <c:axId val="31296819"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2327,8 +926,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Voc limit (V)</a:t>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Voc lim</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2347,8 +946,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72809158"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="325698"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2392,94 +991,76 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
           <c:xVal>
             <c:numRef>
-              <c:f>SUB!$B$7:$B$16</c:f>
+              <c:f>ELO!$C$8:$C$8,ELO!$C$10:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SUB!$I$7:$I$16</c:f>
+              <c:f>ELO!$J$8:$J$8,ELO!$J$10:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.04632815059097E-015</c:v>
+                  <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.90539913363958E-017</c:v>
+                  <c:v>3.87779E-016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.16891406915573E-017</c:v>
+                  <c:v>2.06287E-016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.1863680249762E-016</c:v>
+                  <c:v>2.09404E-016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.88627429424401E-017</c:v>
+                  <c:v>9.52313E-017</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0595627875853E-016</c:v>
+                  <c:v>4.20995E-016</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.54445983152992E-016</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.74837664181835E-017</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4.82607201897442E-017</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.86559168741767E-017</c:v>
+                  <c:v>2.91887E-016</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="44433072"/>
-        <c:axId val="7802764"/>
+        <c:axId val="39816233"/>
+        <c:axId val="44896971"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="44433072"/>
+        <c:axId val="39816233"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,8 +1075,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>thickness</a:t>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>p-ctc</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2505,8 +1086,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="7802764"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="44896971"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2516,7 +1097,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="7802764"/>
+        <c:axId val="44896971"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2531,8 +1112,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Jo nr</a:t>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>J0 non rad (mA/cm^3)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2551,8 +1132,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="44433072"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="39816233"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2596,94 +1177,70 @@
           <c:order val="0"/>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="004586"/>
+              <a:srgbClr val="99ccff"/>
             </a:solidFill>
           </c:spPr>
           <c:marker/>
           <c:xVal>
             <c:numRef>
-              <c:f>SUB!$B$7:$B$16</c:f>
+              <c:f>ELO!$B$8:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>SUB!$J$7:$J$16</c:f>
+              <c:f>ELO!$J$8:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.0643961</c:v>
+                  <c:v>NaN</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.453845</c:v>
+                  <c:v>-9.26551E-019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.618426</c:v>
+                  <c:v>3.87779E-016</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.137043</c:v>
+                  <c:v>2.06287E-016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.601842</c:v>
+                  <c:v>2.09404E-016</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.406493</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.289492</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.918128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.922171</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.856659</c:v>
+                  <c:v>9.52313E-017</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="32402215"/>
-        <c:axId val="60377360"/>
+        <c:axId val="1339771"/>
+        <c:axId val="62567694"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="32402215"/>
+        <c:axId val="1339771"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +1255,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
+                  <a:rPr b="1" sz="900"/>
                   <a:t>thickness</a:t>
                 </a:r>
               </a:p>
@@ -2709,8 +1266,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="60377360"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="62567694"/>
+        <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln>
             <a:solidFill>
@@ -2720,7 +1277,7 @@
         </c:spPr>
       </c:valAx>
       <c:valAx>
-        <c:axId val="60377360"/>
+        <c:axId val="62567694"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,8 +1292,8 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>ERE(%)</a:t>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>J0 non rad (mA/cm^3)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2755,7 +1312,809 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32402215"/>
+        <c:crossAx val="1339771"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$B$8:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$K$8:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.565353</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.229854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.25294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.36478</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.98033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="76043356"/>
+        <c:axId val="22225486"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="76043356"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>Thickness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="22225486"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="22225486"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>ERE (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76043356"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="99ccff"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ELO!$C$8:$C$8,ELO!$C$10:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ELO!$K$8:$K$8,ELO!$K$10:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>NaN</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.229854</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.36478</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.98033</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.626067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="65591560"/>
+        <c:axId val="34266566"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="65591560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>p-ctc</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="34266566"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="34266566"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="1" sz="900"/>
+                  <a:t>ERE (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="65591560"/>
+        <c:crossesAt val="0"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SUB!$G$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1.14396</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:cat>
+            <c:strRef>
+              <c:f>SUB!$A$11:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>w1691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>W1699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>W1696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>W1699arc</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>w1734</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>w1703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>w1717</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>w1732</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>w1718</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$D$12:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$G$12:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1.14299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.14258</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.14154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1482</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.14751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.14527</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.14517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.14386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="61796598"/>
+        <c:axId val="63073"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="61796598"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>basdoping (/10^16)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="63073"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="63073"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>Voc limit (V)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="61796598"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:spPr/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+          </c:spPr>
+          <c:marker/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SUB!$D$11:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SUB!$I$11:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.33625E-018</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.33156E-018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.34263E-018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.91601E-018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.05696E-018</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.51929E-018</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.08385E-018</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.10846E-018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.12229E-018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="11589558"/>
+        <c:axId val="75569643"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="11589558"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>basedoping (/10^16)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75569643"/>
+        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="75569643"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:title>
+          <c:layout/>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr sz="900"/>
+                  <a:t>J 0 rad (mA/cm^2)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+        </c:title>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="11589558"/>
         <c:crosses val="autoZero"/>
         <c:spPr>
           <a:ln>
@@ -2792,15 +2151,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:colOff>214920</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>495000</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434520</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2808,8 +2167,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="128880" y="2319840"/>
-        <a:ext cx="5760720" cy="3243960"/>
+        <a:off x="214920" y="5073120"/>
+        <a:ext cx="5786640" cy="3430080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2821,16 +2180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>315720</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>328680</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2838,8 +2197,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6315840" y="2358360"/>
-        <a:ext cx="5760720" cy="3243960"/>
+        <a:off x="6707520" y="4995360"/>
+        <a:ext cx="5787000" cy="3430080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2851,16 +2210,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450000</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>462600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2868,8 +2227,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="89280" y="5794920"/>
-        <a:ext cx="5760720" cy="3243960"/>
+        <a:off x="7666560" y="2124720"/>
+        <a:ext cx="5786640" cy="3430440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2881,16 +2240,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13680</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2898,8 +2257,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6335640" y="5823720"/>
-        <a:ext cx="5760720" cy="3244320"/>
+        <a:off x="6392520" y="6136560"/>
+        <a:ext cx="5787000" cy="3430800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2911,16 +2270,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>815760</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>113400</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>818640</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>145800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2928,8 +2287,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6325920" y="9866880"/>
-        <a:ext cx="5750640" cy="3243960"/>
+        <a:off x="6382800" y="10419840"/>
+        <a:ext cx="5776920" cy="3430440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2942,15 +2301,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>59400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:colOff>86400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>415800</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>296280</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2958,8 +2317,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="59400" y="9712800"/>
-        <a:ext cx="5751000" cy="3244320"/>
+        <a:off x="86400" y="10256760"/>
+        <a:ext cx="5776920" cy="3430800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2977,15 +2336,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:colOff>118440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>752040</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>102240</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>263160</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2993,8 +2352,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="307080" y="2704680"/>
-        <a:ext cx="5761080" cy="3243960"/>
+        <a:off x="118440" y="3320280"/>
+        <a:ext cx="5755320" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3007,15 +2366,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>257760</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:colOff>276120</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>702720</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>430560</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3023,132 +2382,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="257760" y="9375840"/>
-        <a:ext cx="5761080" cy="3243960"/>
+        <a:off x="276120" y="8408520"/>
+        <a:ext cx="5765040" cy="3241440"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>267840</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>702720</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>4320</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="267840" y="5987520"/>
-        <a:ext cx="5751000" cy="3243960"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6147360" y="2813040"/>
-        <a:ext cx="5759640" cy="3239640"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>34200</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6157440" y="6199200"/>
-        <a:ext cx="5761080" cy="3243960"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>103680</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="6237000" y="9895680"/>
-        <a:ext cx="5751000" cy="3244320"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3169,14 +2408,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.6941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.3803921568627"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.4235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="13.5921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
@@ -3697,7 +2936,7 @@
       </c>
       <c r="F23" s="0" t="n">
         <f aca="false">I23-E23</f>
-        <v>2.29833779166182E-016</v>
+        <v>2.29833779166181E-016</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0.629601</v>
@@ -3939,7 +3178,7 @@
       </c>
       <c r="F32" s="0" t="n">
         <f aca="false">I32-E32</f>
-        <v>1.54445983152992E-016</v>
+        <v>1.54445983152991E-016</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>0.289492</v>
@@ -4322,21 +3561,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L4" activeCellId="0" pane="topLeft" sqref="L4"/>
+      <selection activeCell="G24" activeCellId="0" pane="topLeft" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.96078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.01960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.25490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.48627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.2156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.04705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.29019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.356862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.09411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.83529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.26274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
@@ -4361,306 +3601,478 @@
       <c r="G1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="K1" s="0" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.019</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1.1528</v>
+        <v>1.03</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>21.5277</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <f aca="false">L2-H2</f>
-        <v>1.60653806190978E-016</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>0.565353</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>1.61580357190978E-016</v>
+        <v>1.12651</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>21.711</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="2" t="n">
+        <v>1.05421E-016</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>2.39142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1.01</v>
-      </c>
       <c r="F3" s="0" t="n">
-        <v>1.12322</v>
+        <v>0.991</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>19.3732</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>2.06287E-016</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>1.25294</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+        <v>1.12021</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>20.0813</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>4.48519E-016</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.675078</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1.03</v>
+      <c r="E4" s="0" t="s">
+        <v>114</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.12651</v>
+        <v>0.985</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>21.711</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>1.05421E-016</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>2.39142</v>
+        <v>1.14405</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>20.6274</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="3" t="n">
+        <v>5.83777E-016</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.212887</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1.01</v>
-      </c>
       <c r="F5" s="0" t="n">
-        <v>1.12101</v>
+        <v>0.996</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>19.6883</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>2.09404E-016</v>
-      </c>
-      <c r="J5" s="0" t="n">
-        <v>1.36478</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+        <v>1.12517</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>20.1414</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>3.70748E-016</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.676141</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1.61580357190978E-016</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1.03</v>
+        <v>7</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>118</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1.12082</v>
+        <v>1.039</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>19.7314</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>9.52313E-017</v>
-      </c>
-      <c r="J6" s="0" t="n">
-        <v>2.98033</v>
+        <v>1.14545</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>21.9846</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1.62835</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0.99</v>
+        <v>7</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1.12116</v>
+        <v>1.039</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>18.1248</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>4.20995E-016</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0.626067</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+        <v>1.14911</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>29.1088</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>1.4133</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1.009</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>123</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1.12628</v>
+        <v>1.015</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>26.3237</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>2.91887E-016</v>
-      </c>
-      <c r="J8" s="0" t="n">
-        <v>1.0711</v>
+        <v>1.15631</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>22.1658</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0.996</v>
+        <v>7</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1.12517</v>
+        <v>1.019</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>20.1414</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>3.70748E-016</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>0.676141</v>
+        <v>1.1528</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>21.5277</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" s="3" t="n">
+        <f aca="false">M9-I9</f>
+        <v>-9.26551E-019</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.565353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D10" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1.15206</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>20.1766</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="3" t="n">
+        <v>3.87779E-016</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.229854</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
+      <c r="A11" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>1.12021</v>
-      </c>
-      <c r="G10" s="0" t="n">
-        <v>20.0813</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>4.48519E-016</v>
-      </c>
-      <c r="J10" s="0" t="n">
-        <v>0.675078</v>
+      <c r="F11" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1.12322</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>19.3732</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>2.06287E-016</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>1.25294</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
+      <c r="A12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>1.12101</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>19.6883</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>2.09404E-016</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>1.36478</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
+      <c r="A13" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>1.12082</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>19.7314</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>9.52313E-017</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>2.98033</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
+      <c r="A14" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>1.12116</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>18.1248</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J14" s="2" t="n">
+        <v>4.20995E-016</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.626067</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
+      <c r="A15" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>1.12628</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>26.3237</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>2.91887E-016</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>1.0711</v>
       </c>
     </row>
   </sheetData>
@@ -4680,21 +4092,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="L17" activeCellId="0" pane="topLeft" sqref="L17"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A15" activeCellId="0" pane="topLeft" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.8156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.88235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.27843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.11764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.35294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="4.90980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.31372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.88235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.23137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="4.74117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.96078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.50980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.1686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.7490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.93725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.7490196078431"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="1">
@@ -4719,182 +4135,200 @@
       <c r="G1" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>108</v>
       </c>
       <c r="J1" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
+      <c r="K1" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="2">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>1.028</v>
+        <v>20</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>1.1482</v>
+        <v>1.04</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>20.5595</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="0" t="n">
-        <v>1.07875097297655E-016</v>
+        <v>1.16305</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>14.7383</v>
+      </c>
+      <c r="I2" s="2" t="n">
+        <v>4.26603E-019</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.956506</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
+        <v>4.86559168741767E-017</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.856659</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="3">
       <c r="A3" s="0" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>0.996</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>1.14386</v>
+        <v>1.02</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>18.4515</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>3.36122071760788E-016</v>
+        <v>1.16232</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>14.7345</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>4.38674E-019</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.328201</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
+        <v>1.0595627875853E-016</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.406493</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
       <c r="A4" s="0" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1.02</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1.14527</v>
+        <v>1.03</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>18.822</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>1.34826143608269E-016</v>
+        <v>1.16218</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>14.129</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <v>4.23014E-019</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.786232</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+        <v>6.88627429424401E-017</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.601842</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1.052</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.14865</v>
+        <v>1.03</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>20.781</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>4.24491934156741E-017</v>
+        <v>1.16148</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>14.7114</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>4.52588E-019</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>2.37897</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+        <v>7.16891406915573E-017</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.618426</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1.035</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1.14751</v>
+        <v>1.04</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>28.7691</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="0" t="n">
-        <v>1.14741233881266E-016</v>
+        <v>1.16126</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>14.3923</v>
+      </c>
+      <c r="I6" s="2" t="n">
+        <v>4.4648E-019</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.2881</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+        <v>4.74837664181835E-017</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.918128</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="7">
       <c r="A7" s="0" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>300</v>
@@ -4902,28 +4336,31 @@
       <c r="D7" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>0.954</v>
+      <c r="E7" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1.14396</v>
+        <v>1.04</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>22.0558</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>2.04632815059097E-015</v>
+        <v>1.16115</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>14.6284</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>4.55803E-019</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.0643961</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
+        <v>4.82607201897442E-017</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.922171</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="8">
       <c r="A8" s="0" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.5</v>
@@ -4934,28 +4371,31 @@
       <c r="D8" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1.02</v>
+      <c r="E8" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1.15948</v>
+        <v>1.01</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>13.7813</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="0" t="n">
-        <v>9.90539913363958E-017</v>
+        <v>1.1611</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>14.5685</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>4.54775E-019</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.453845</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
+        <v>1.54445983152992E-016</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.289492</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="9">
       <c r="A9" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.5</v>
@@ -4966,28 +4406,31 @@
       <c r="D9" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>1.03</v>
+      <c r="E9" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1.16148</v>
+        <v>0.99</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>14.7114</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>7.16891406915573E-017</v>
+        <v>1.16043</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>13.8406</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>4.43347E-019</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.618426</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
+        <v>3.1863680249762E-016</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.137043</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="10">
       <c r="A10" s="0" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0.5</v>
@@ -4998,31 +4441,34 @@
       <c r="D10" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>0.99</v>
+      <c r="E10" s="0" t="s">
+        <v>134</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1.16043</v>
+        <v>1.02</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>13.8406</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>3.1863680249762E-016</v>
+        <v>1.15948</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>13.7813</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>4.5809E-019</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.137043</v>
+        <v>9.90539913363958E-017</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.453845</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
       <c r="A11" s="0" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>300</v>
@@ -5030,31 +4476,31 @@
       <c r="D11" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>1.03</v>
-      </c>
       <c r="F11" s="0" t="n">
-        <v>1.16218</v>
+        <v>0.954</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>14.129</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>6.88627429424401E-017</v>
+        <v>1.14396</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>22.0558</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>1.33625E-018</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.601842</v>
+        <v>2.04632815059097E-015</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.0643961</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
       <c r="A12" s="0" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>300</v>
@@ -5062,31 +4508,31 @@
       <c r="D12" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1.02</v>
-      </c>
       <c r="F12" s="0" t="n">
-        <v>1.16232</v>
+        <v>1.013</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>14.7345</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>1.0595627875853E-016</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>0.406493</v>
+        <v>1.14299</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>21.1752</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>1.33156E-018</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.654914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
       <c r="A13" s="0" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>300</v>
@@ -5094,31 +4540,31 @@
       <c r="D13" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>1.01</v>
-      </c>
       <c r="F13" s="0" t="n">
-        <v>1.1611</v>
+        <v>1.019</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>14.5685</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I13" s="0" t="n">
-        <v>1.54445983152992E-016</v>
-      </c>
-      <c r="J13" s="0" t="n">
-        <v>0.289492</v>
+        <v>1.14258</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>21.0076</v>
+      </c>
+      <c r="I13" s="2" t="n">
+        <v>1.34263E-018</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.83951</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
       <c r="A14" s="0" t="s">
-        <v>65</v>
+        <v>139</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>300</v>
@@ -5126,87 +4572,215 @@
       <c r="D14" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>1.04</v>
-      </c>
       <c r="F14" s="0" t="n">
-        <v>1.16126</v>
+        <v>1.017</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>14.3923</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="0" t="n">
-        <v>4.74837664181835E-017</v>
-      </c>
-      <c r="J14" s="0" t="n">
-        <v>0.918128</v>
+        <v>1.14154</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>28.8024</v>
+      </c>
+      <c r="I14" s="2" t="n">
+        <v>1.91601E-018</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.808756</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1.16115</v>
+        <v>1.028</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>14.6284</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I15" s="0" t="n">
-        <v>4.82607201897442E-017</v>
+        <v>1.1482</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>20.5595</v>
+      </c>
+      <c r="I15" s="2" t="n">
+        <v>1.05696E-018</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.922171</v>
+        <v>1.07875097297655E-016</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.956506</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
       <c r="A16" s="0" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>300</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1.04</v>
+        <v>7</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1.16305</v>
+        <v>1.035</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>14.7383</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I16" s="0" t="n">
-        <v>4.86559168741767E-017</v>
+        <v>1.14751</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>28.7691</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>1.51929E-018</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.856659</v>
+        <v>1.14741233881266E-016</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1.2881</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
+      <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>1.14527</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>18.822</v>
+      </c>
+      <c r="I17" s="2" t="n">
+        <v>1.08385E-018</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1.34826143608269E-016</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.786232</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
+      <c r="A18" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1.032</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>1.14517</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>19.1746</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>1.10846E-018</v>
+      </c>
+      <c r="J18" s="3" t="n">
+        <v>8.71771E-017</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>1.25553</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
+      <c r="A19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0.996</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.14386</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>18.4515</v>
+      </c>
+      <c r="I19" s="2" t="n">
+        <v>1.12229E-018</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>3.36122071760788E-016</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.328201</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
+      <c r="A20" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>300</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1.052</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>1.14865</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>20.781</v>
+      </c>
+      <c r="I20" s="2" t="n">
+        <v>1.0501E-018</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>4.24491934156741E-017</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>2.37897</v>
       </c>
     </row>
   </sheetData>
